--- a/ex_corr/tmpXLS/tmpГолованова.xlsx
+++ b/ex_corr/tmpXLS/tmpГолованова.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VecheslavSP\Desktop\Python\Ros_accred\ex_corr\tmpXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unitess\TEMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
-    <sheet name="export_230414_1906" sheetId="1" r:id="rId1"/>
+    <sheet name="export_230418_1012" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -934,7 +934,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1087,15 +1087,8 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="22"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1275,12 +1268,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1442,13 +1429,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1772,14 +1756,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AE7" sqref="AE7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="31" max="31" width="20.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1903,125 +1882,125 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="3">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>44972</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2">
         <v>18788</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="4">
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2">
         <v>2478.3200000000002</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" s="4">
+      <c r="O2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2">
         <v>571691</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" t="s">
         <v>45</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="T2" s="4" t="s">
+      <c r="R2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" t="s">
         <v>46</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" t="s">
         <v>49</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" t="s">
         <v>50</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" t="s">
         <v>51</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" t="s">
         <v>52</v>
       </c>
-      <c r="AA2" s="4">
+      <c r="AA2">
         <v>3666127502</v>
       </c>
-      <c r="AB2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC2" s="4">
+      <c r="AB2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC2">
         <v>3666127502</v>
       </c>
-      <c r="AD2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AD2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE2" t="s">
         <v>53</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AF2" t="s">
         <v>54</v>
       </c>
-      <c r="AG2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH2" s="4">
+      <c r="AG2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH2">
         <v>571691</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AI2" t="s">
         <v>55</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AJ2" t="s">
         <v>50</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AK2" t="s">
         <v>51</v>
       </c>
-      <c r="AL2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AL2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM2" t="s">
         <v>49</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="AN2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7883,6 +7862,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>